--- a/biology/Botanique/Tan_rouge/Tan_rouge.xlsx
+++ b/biology/Botanique/Tan_rouge/Tan_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Weinmannia tinctoria
 Le tan rouge (Weinmannia tinctoria) est un arbre endémique des Mascareignes, de la famille des Cunoniacées.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gros arbre des forêts basses de l'île de la Réunion considéré comme un bois de Couleur, il peut mesurer jusqu'à 18 mètres. Dans les forêts d'altitude, on peut le trouver à l'état d'arbuste.
 Son tronc droit porte de grosses branches. L'écorce du tronc, qui était utilisée pour la préparation des cuirs, est riche en tanins et rend une coloration rouge, d'où le  nom commun de l'arbre.
@@ -550,12 +564,87 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ébénisterie
-Le bois rouge sombre, étant droit et dur, est très prisé pour l’ébénisterie et la charpenterie. On utilisait le tan rouge pour fabriquer des bardeaux et des barriques.
-Propriétés médicinales
-L'écorce est astringente et fébrifuge.
-Liens internes
-Endémisme dans les Mascareignes.</t>
+          <t>Ébénisterie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois rouge sombre, étant droit et dur, est très prisé pour l’ébénisterie et la charpenterie. On utilisait le tan rouge pour fabriquer des bardeaux et des barriques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tan_rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tan_rouge</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Propriétés médicinales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écorce est astringente et fébrifuge.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tan_rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tan_rouge</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Endémisme dans les Mascareignes.</t>
         </is>
       </c>
     </row>
